--- a/Assets/Data/Dialogue/Chapter1/Sequence/DGS_1_1.xlsx
+++ b/Assets/Data/Dialogue/Chapter1/Sequence/DGS_1_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ProjectB\Assets\Data\GameDesign\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eom36\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD3412E-48AA-42B4-B23A-2D1328DDD24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193AEF5A-CA07-418A-ACC6-E5E3962FBEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{34EB989E-EC67-44B3-9B58-9F60A3EFDBDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{34EB989E-EC67-44B3-9B58-9F60A3EFDBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,132 +25,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>1_1_1</t>
-  </si>
-  <si>
-    <t>1_1_2</t>
-  </si>
-  <si>
-    <t>1_1_3</t>
-  </si>
-  <si>
-    <t>1_1_4</t>
-  </si>
-  <si>
-    <t>1_1_5</t>
-  </si>
-  <si>
-    <t>1_1_6</t>
-  </si>
-  <si>
-    <t>루미</t>
-  </si>
-  <si>
-    <t>주인공</t>
-  </si>
-  <si>
-    <t>(복도에서 서둘러 뛰며) 아, 지각이야 지각!</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>조심해. 앞 안 보고 뛰다 다치겠어.</t>
-  </si>
-  <si>
-    <t>(멈춰서) 어, 죄송해요! …어라, 선배님이시죠?</t>
-  </si>
-  <si>
-    <t>맞아. 동아리방 가는 길인데 네가 갑자기 튀어나오더라고.</t>
-  </si>
-  <si>
-    <t>진짜 죄송해요… 전학생이라 아직 학교가 익숙하지 않아서요.</t>
-  </si>
-  <si>
-    <t>전학생? 혹시 1학년 3반, 강유진?</t>
-  </si>
-  <si>
-    <t>1_1_7</t>
-  </si>
-  <si>
-    <t>네, 맞아요! 어떻게 아세요?</t>
-  </si>
-  <si>
-    <t>1_1_8</t>
-  </si>
-  <si>
-    <t>우리 동아리에 네 얘기 좀 돌더라고. 기대되는 신입이랬나.</t>
-  </si>
-  <si>
-    <t>1_1_9</t>
-  </si>
-  <si>
-    <t>에… 기대라니, 부담스러운데요…</t>
-  </si>
-  <si>
-    <t>1_1_10</t>
-  </si>
-  <si>
-    <t>하하, 부담 가질 필요 없어. 그냥 편하게 해.</t>
-  </si>
-  <si>
-    <t>1_1_11</t>
-  </si>
-  <si>
-    <t>혹시 오늘 방과 후 시간 있어?</t>
-  </si>
-  <si>
-    <t>1_1_12</t>
-  </si>
-  <si>
-    <t>네, 특별한 일정은 없어요. 왜요?</t>
-  </si>
-  <si>
-    <t>1_1_13</t>
-  </si>
-  <si>
-    <t>그럼 동아리방 한 번 구경해볼래? 환영도 해줄 겸.</t>
-  </si>
-  <si>
-    <t>1_1_14</t>
-  </si>
-  <si>
-    <t>어… 그럼 잠깐만 들러볼게요. 감사합니다!</t>
-  </si>
-  <si>
-    <t>1_1_15</t>
-  </si>
-  <si>
-    <t>좋아. 그럼 4시쯤 문 열어둘게. 기대하고 있을게.</t>
-  </si>
-  <si>
-    <t>1_1_16</t>
-  </si>
-  <si>
-    <t>네! 저도 기대돼요… (작게) 조금은…</t>
-  </si>
-  <si>
-    <t>1_1_17</t>
-  </si>
-  <si>
-    <t>갑작스럽게 시작된, 낯선 학교에서의 첫 인연.</t>
-  </si>
-  <si>
-    <t>1_1_18</t>
-  </si>
-  <si>
-    <t>어쩌면 이게, 평범하지 않은 하루의 시작일지도 모른다.</t>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>CH1_SEQ1_LINE1</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>CH1_SEQ1_LINE2</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>CH1_SEQ1_LINE3</t>
+  </si>
+  <si>
+    <t>CH1_SEQ1_LINE4</t>
+  </si>
+  <si>
+    <t>CH1_SEQ1_LINE5</t>
+  </si>
+  <si>
+    <t>CH1_SEQ2_LINE1</t>
+  </si>
+  <si>
+    <t>CH1_SEQ2_LINE2</t>
+  </si>
+  <si>
+    <t>CH1_SEQ2_LINE3</t>
+  </si>
+  <si>
+    <t>CH1_SEQ2_LINE4</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE1</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE2</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE3</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE4</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE5</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE6</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE7</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE8</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE9</t>
+  </si>
+  <si>
+    <t>CH1_SEQ3_LINE10</t>
+  </si>
+  <si>
+    <t>오늘 날씨가 참 좋네.</t>
+  </si>
+  <si>
+    <t>그래, 산책하기 딱 좋은 날씨야.</t>
+  </si>
+  <si>
+    <t>요즘 어떻게 지내?</t>
+  </si>
+  <si>
+    <t>바쁘긴 하지만, 네 생각 많이 했어.</t>
+  </si>
+  <si>
+    <t>정말? 나도 네가 그리웠어.</t>
+  </si>
+  <si>
+    <t>어제 본 영화 어땠어?</t>
+  </si>
+  <si>
+    <t>정말 감동적이었어. 같이 봐서 더 좋았고.</t>
+  </si>
+  <si>
+    <t>다음엔 맛있는 것도 먹으러 가자.</t>
+  </si>
+  <si>
+    <t>좋아! 그럼 계획 세우자.</t>
+  </si>
+  <si>
+    <t>갑자기 비가 오네. 우산 챙겼어?</t>
+  </si>
+  <si>
+    <t>아, 깜빡했어. 미안!</t>
+  </si>
+  <si>
+    <t>괜찮아, 같이 쓰자.</t>
+  </si>
+  <si>
+    <t>고마워, 넌 참 친절하구나.</t>
+  </si>
+  <si>
+    <t>그럼, 다음에 또 만나자.</t>
+  </si>
+  <si>
+    <t>응, 꼭! 연락할게.</t>
+  </si>
+  <si>
+    <t>좋아, 기다릴게.</t>
+  </si>
+  <si>
+    <t>오늘 하루도 고마웠어.</t>
+  </si>
+  <si>
+    <t>나도. 좋은 꿈 꿔!</t>
+  </si>
+  <si>
+    <t>너도!</t>
   </si>
 </sst>
 </file>
@@ -531,13 +534,12 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="1" max="2" width="20.69921875" customWidth="1"/>
     <col min="3" max="3" width="100.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -557,199 +559,209 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
